--- a/exmpl.xlsx
+++ b/exmpl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>Имя</t>
   </si>
@@ -31,839 +31,828 @@
     <t>Город</t>
   </si>
   <si>
-    <t>Ирина Константиновна</t>
-  </si>
-  <si>
-    <t>Алевтина</t>
-  </si>
-  <si>
-    <t>Ильич</t>
-  </si>
-  <si>
-    <t>Максим</t>
+    <t xml:space="preserve">Светлана </t>
+  </si>
+  <si>
+    <t>Людмила</t>
+  </si>
+  <si>
+    <t>Инесса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Татьяна </t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>Лариса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москва </t>
+  </si>
+  <si>
+    <t>89161083251</t>
+  </si>
+  <si>
+    <t>мунар</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клиент Мужчина </t>
   </si>
   <si>
     <t>Вячеслав</t>
   </si>
   <si>
+    <t xml:space="preserve">Александр </t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Галина</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>89670211135</t>
+  </si>
+  <si>
+    <t>89680792175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по возврату денег по расписке </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ирина </t>
+  </si>
+  <si>
+    <t>Адам</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Артём</t>
+  </si>
+  <si>
+    <t>89512419554</t>
+  </si>
+  <si>
+    <t>89660829822</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Елена </t>
+  </si>
+  <si>
+    <t>Вадим</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Порфирий Петрович</t>
+  </si>
+  <si>
+    <t>89055188388</t>
+  </si>
+  <si>
+    <t>89013815808</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t>вопрос о пенсионное право</t>
+  </si>
+  <si>
+    <t>Пенсионный вопрос</t>
+  </si>
+  <si>
+    <t>Вопрос по судебному праву(вынесению постановления)</t>
+  </si>
+  <si>
+    <t>Жилищный вопрос.</t>
+  </si>
+  <si>
+    <t>89067954999</t>
+  </si>
+  <si>
+    <t>89161417680</t>
+  </si>
+  <si>
+    <t>89296830735</t>
+  </si>
+  <si>
+    <t>89685357831</t>
+  </si>
+  <si>
+    <t>Задолженность по кредиту 40 т.р. - высчитали, и повторно вешают задолженность</t>
+  </si>
+  <si>
+    <t>вопрос по уголовному праву 158 статья</t>
+  </si>
+  <si>
+    <t>Нурсулу</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Илья </t>
+  </si>
+  <si>
+    <t>москва</t>
+  </si>
+  <si>
+    <t>89032033329</t>
+  </si>
+  <si>
+    <t>Добрый День. Мне нужна консультация вашего специалиста. По ЖКХ. ( обл.) 89067954999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по товарам и услугам </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Помощь в снятии рег действий с авто </t>
+  </si>
+  <si>
+    <t>Вопрос по выплатам для матери одиночки .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вопрос по пенсии </t>
+  </si>
+  <si>
+    <t xml:space="preserve">вопрос по семейному праву </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос к авто-юристу по обжалованию постановления об отмене по ДТП перезвонить в 17.00 </t>
+  </si>
+  <si>
+    <t>Дал машину другу в 2017 году, он на ней скрылся и по сей день не с ним связи. Приходят штрафы  - 60 т.р. уже оплатил и пришли ещё штрафы на 60 т.р.</t>
+  </si>
+  <si>
+    <t>Как сделать так, чтобы мои отчисления с зарплаты переводились теперь в Московский ПФР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Здравствуйте у меня вопросы по ЖКХ супсидии документы </t>
+  </si>
+  <si>
+    <t>Выписать по суду</t>
+  </si>
+  <si>
+    <t>Здравствуйте. Мне нужна консультация вашего специалиста . По жилищному праву вопросы (более подробно с юристом )Позвонить в 16:00 по Москве ) 89687617191</t>
+  </si>
+  <si>
+    <t>Судебный вопрос(неправомерные действия компании по отмене судебного приказа, я его сама отменяла, и оплату производила в срок. Теперь меня не законно привлекают по ст.315 УК РФ.) Позвонить в 15:00 по МСК.</t>
+  </si>
+  <si>
+    <t>Вопрос к автоюристу(помощь в снятию ограничений с автомобиля.)</t>
+  </si>
+  <si>
+    <t>Вопрос по пенсионному праву</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по мошенничеству </t>
+  </si>
+  <si>
+    <t>вопрос по семейному праву</t>
+  </si>
+  <si>
+    <t>Обманутый дольщик - получить неустойку</t>
+  </si>
+  <si>
+    <t>Мед. право - подать в суд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пенсионный вопрос </t>
+  </si>
+  <si>
+    <t xml:space="preserve">получение военного билета </t>
+  </si>
+  <si>
+    <t>спор с управляющей компанией</t>
+  </si>
+  <si>
+    <t>игорь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по наложению запрета на обременения участка находящегося в собственности без межевания. </t>
+  </si>
+  <si>
+    <t>89654447727</t>
+  </si>
+  <si>
+    <t>Вопрос по жилищному праву(покупка квартиры) звонок в 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по бракоразводному процессу </t>
+  </si>
+  <si>
+    <t>89255480212</t>
+  </si>
+  <si>
+    <t>89778873992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ольга </t>
+  </si>
+  <si>
+    <t>Вопрос по квартире</t>
+  </si>
+  <si>
+    <t>борисович</t>
+  </si>
+  <si>
+    <t>Жилищный вопрос(перед жилого помещения в нежилое.)</t>
+  </si>
+  <si>
+    <t>Роза</t>
+  </si>
+  <si>
+    <t>Здравствуйте. Мне нужна консультация вашего специалиста . По  поводу доплаты к  пенсии вопросы (более подробно с юристом )Позвонить в 17:00 по Москве ) 89169471286</t>
+  </si>
+  <si>
+    <t>Составить исковое заявление</t>
+  </si>
+  <si>
+    <t>Вопрос по программе молодая семья</t>
+  </si>
+  <si>
+    <t>Возврат денежных средств - 1 млн. 400 т.р. Звонить после 14.00</t>
+  </si>
+  <si>
+    <t>Вопрос по алиментам перезвонить через 2 часа.</t>
+  </si>
+  <si>
+    <t>89262755267</t>
+  </si>
+  <si>
+    <t>Алексеевич</t>
+  </si>
+  <si>
+    <t>Клиент ( Бабушка  )</t>
+  </si>
+  <si>
+    <t>Михаил</t>
+  </si>
+  <si>
+    <t>айжана</t>
+  </si>
+  <si>
+    <t>89031516188</t>
+  </si>
+  <si>
+    <t>89645848174</t>
+  </si>
+  <si>
+    <t>Надежда</t>
+  </si>
+  <si>
+    <t>Геннадий</t>
+  </si>
+  <si>
+    <t>89687617191</t>
+  </si>
+  <si>
+    <t>89267546350</t>
+  </si>
+  <si>
+    <t>89256864201</t>
+  </si>
+  <si>
+    <t>89660126605</t>
+  </si>
+  <si>
+    <t>89104873167</t>
+  </si>
+  <si>
+    <t>89031447732</t>
+  </si>
+  <si>
+    <t>Виктор</t>
+  </si>
+  <si>
+    <t>Военное право - жилищный вопрос. Звонить в 14.00</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Руслан</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Константин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владислав </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей </t>
+  </si>
+  <si>
+    <t>Игорь</t>
+  </si>
+  <si>
+    <t>Добрый День. Мне нужна консультация вашего специалиста. По наследству. ( звонить после 16-00.) 89266097333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игорь </t>
+  </si>
+  <si>
+    <t>айжан</t>
+  </si>
+  <si>
+    <t>89262717316</t>
+  </si>
+  <si>
+    <t>89777101378</t>
+  </si>
+  <si>
+    <t>89150858600</t>
+  </si>
+  <si>
+    <t>Вопрос по ЗПП.
+Просит набрать в 16:00.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по автоштрафу </t>
+  </si>
+  <si>
+    <t>89037437626</t>
+  </si>
+  <si>
+    <t>89260848652</t>
+  </si>
+  <si>
+    <t>Вопрос по получению земельного участка (Набрать через час)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вопрос по постановлению техники на учет </t>
+  </si>
+  <si>
+    <t>Вопрос по военному праву (увольнение из ВС РФ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оспорить задолженность по налогам за проданное авто </t>
+  </si>
+  <si>
+    <t>трудовое право (не выплата зарплаты) звонить после 19:00</t>
+  </si>
+  <si>
+    <t>вопрос по пенсионному праву</t>
+  </si>
+  <si>
+    <t>вопрос по наследству вопросам будит заниматца сама.</t>
+  </si>
+  <si>
+    <t>89851115006</t>
+  </si>
+  <si>
+    <t>89165532903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андрей </t>
+  </si>
+  <si>
+    <t>89161180982</t>
+  </si>
+  <si>
+    <t>89647644764</t>
+  </si>
+  <si>
+    <t>89772673380</t>
+  </si>
+  <si>
+    <t>89160132201</t>
+  </si>
+  <si>
+    <t>89652605282</t>
+  </si>
+  <si>
+    <t>Левун</t>
+  </si>
+  <si>
+    <t>вопрос по трудовому праву</t>
+  </si>
+  <si>
+    <t>Вопрос по страхованию.</t>
+  </si>
+  <si>
+    <t>Вопрос по ЖКХ сумма долга 200к(звонок после 17:00)</t>
+  </si>
+  <si>
+    <t>Вопрос по семейному праву (органы опеки пытаются  забрать ребенка нужна ваша помощь. позвоните мне в 16:30.
+Спасибо.</t>
+  </si>
+  <si>
+    <t>Добрый День. Мне нужна консультация вашего специалиста. По пенсионному праву 89037236834</t>
+  </si>
+  <si>
+    <t>Подать исковое заявление на мед. учреждение</t>
+  </si>
+  <si>
+    <t>Вопрос по судебному праву, подача заявления за моральный вред</t>
+  </si>
+  <si>
+    <t>Мошеннические действия на 3 млн. руб.</t>
+  </si>
+  <si>
+    <t>нина</t>
+  </si>
+  <si>
+    <t>Давид</t>
+  </si>
+  <si>
+    <t>Кредитная задолженность 600 т.р.</t>
+  </si>
+  <si>
+    <t>Вопрос по семейному праву.</t>
+  </si>
+  <si>
+    <t>Вопрос по жилищному праву перепланировка перезвонить в 16.00</t>
+  </si>
+  <si>
+    <t>Продажа квартиры</t>
+  </si>
+  <si>
+    <t>89169471286</t>
+  </si>
+  <si>
+    <t>89184848989</t>
+  </si>
+  <si>
+    <t>89779225267</t>
+  </si>
+  <si>
+    <t>89268179237</t>
+  </si>
+  <si>
+    <t>89858709992</t>
+  </si>
+  <si>
+    <t>89036643462</t>
+  </si>
+  <si>
+    <t>89266097333</t>
+  </si>
+  <si>
+    <t>Григорьевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вопрос по квартире </t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Виталий</t>
+  </si>
+  <si>
+    <t>Кира</t>
+  </si>
+  <si>
+    <t>вопрос по жилищному праву попрасил набрать через 1 час.</t>
+  </si>
+  <si>
+    <t>Вопрос по земельному праву</t>
+  </si>
+  <si>
+    <t>спор гражданско-правового характера. Возмущение ущерба после затопа</t>
+  </si>
+  <si>
+    <t>Пенсионный вопрос.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вопрос по купли-продажи  ждет званка </t>
+  </si>
+  <si>
+    <t>вопрос по трудовому праву не выплата заработной платы</t>
+  </si>
+  <si>
+    <t>Здравствуйте. Мне нужна консультация вашего специалиста . По поводу пенсии вопросы (более подробно с юристом ) 89629753902</t>
+  </si>
+  <si>
+    <t>вопрос по наследству.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по наследству </t>
+  </si>
+  <si>
+    <t>вопрос о пенсии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Людмила </t>
+  </si>
+  <si>
+    <t>Светлана</t>
+  </si>
+  <si>
     <t>Иван</t>
   </si>
   <si>
-    <t>Лидия Константиновна</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>Али</t>
-  </si>
-  <si>
-    <t>Москва</t>
-  </si>
-  <si>
-    <t>89777278849</t>
-  </si>
-  <si>
-    <t>89262131821</t>
-  </si>
-  <si>
-    <t>89851925550</t>
-  </si>
-  <si>
-    <t>89251157221</t>
-  </si>
-  <si>
-    <t>89162019797</t>
-  </si>
-  <si>
-    <t>89261328701</t>
-  </si>
-  <si>
-    <t>89629766769</t>
-  </si>
-  <si>
-    <t>89263450312</t>
-  </si>
-  <si>
-    <t>89032428310</t>
-  </si>
-  <si>
-    <t>89257078512</t>
-  </si>
-  <si>
-    <t>89057969076</t>
-  </si>
-  <si>
-    <t>Прошла процедуру банкротства. ЖКХ не признаёт и вызывает в суд. Требует погасить задолженность 150 т.р.</t>
-  </si>
-  <si>
-    <t>Жилищный вопрос, помощь в составлении претензии.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вопрос по мошенничеству . </t>
-  </si>
-  <si>
-    <t>Жилищный приватизация. 89251157221</t>
-  </si>
-  <si>
-    <t>Купил гараж - на нём задолженность по кап. ремонту. Как быть?</t>
-  </si>
-  <si>
-    <t>Помощь в оформлении документов</t>
-  </si>
-  <si>
-    <t>ЖКХ</t>
-  </si>
-  <si>
-    <t>Транспортный налог (пришёл с Красноярского края - не был там ни когда)</t>
-  </si>
-  <si>
-    <t>вопрос по нарушению прав потребителя 89032428310</t>
-  </si>
-  <si>
-    <t>Вопрос нарушении защиты  прав потребителя  89257078512</t>
-  </si>
-  <si>
-    <t>Вопрос по пенсионному право .</t>
-  </si>
-  <si>
-    <t>Вопрос по улучшению жилищных условий.</t>
-  </si>
-  <si>
-    <t>ВОПРОСЫ ПО УГОЛОВНОМУ ПРАВУ 89688351234</t>
-  </si>
-  <si>
-    <t>89997686011</t>
-  </si>
-  <si>
-    <t>89688351234</t>
-  </si>
-  <si>
-    <t>Пенсионный вопрос</t>
-  </si>
-  <si>
-    <t>Вопрос по долевой собственности, (обманутый дольщик).</t>
-  </si>
-  <si>
-    <t>1. Вопрос по наследству.
-2. Жилищный вопрос.</t>
-  </si>
-  <si>
-    <t>1 ЖКХ. 2 Налоги. ( позвонить после14-00 по Моск.) 89153549829</t>
-  </si>
-  <si>
-    <t>Пришла посылка - забирать её не хочет. Хотят повесить пени за хранение. Как быть?</t>
-  </si>
-  <si>
-    <t>Олег</t>
-  </si>
-  <si>
-    <t>Владимировна</t>
-  </si>
-  <si>
-    <t>Николай</t>
-  </si>
-  <si>
-    <t>Наталья</t>
-  </si>
-  <si>
-    <t>ИЛЬЯ</t>
-  </si>
-  <si>
-    <t>Анатолий Михайлович</t>
-  </si>
-  <si>
-    <t>89030001090</t>
-  </si>
-  <si>
-    <t>89037750577</t>
-  </si>
-  <si>
-    <t>89261144100</t>
-  </si>
-  <si>
-    <t>89269949989</t>
-  </si>
-  <si>
-    <t>Андреевич</t>
-  </si>
-  <si>
-    <t>вопросы по конституционному суду (обжаловать решение) 89166371824</t>
-  </si>
-  <si>
-    <t>89153549829</t>
-  </si>
-  <si>
-    <t>89853011453</t>
-  </si>
-  <si>
-    <t>Алиса</t>
-  </si>
-  <si>
-    <t>Дмитрий</t>
-  </si>
-  <si>
-    <t>Павел</t>
-  </si>
-  <si>
-    <t>Валерий</t>
-  </si>
-  <si>
-    <t>Александр Павлович</t>
-  </si>
-  <si>
-    <t>Александр</t>
-  </si>
-  <si>
-    <t>89166371824</t>
-  </si>
-  <si>
-    <t>89670155749</t>
-  </si>
-  <si>
-    <t>89057076045</t>
-  </si>
-  <si>
-    <t>89168286554</t>
-  </si>
-  <si>
-    <t>Васильевич</t>
-  </si>
-  <si>
-    <t>Вопрос по квартирному праву.</t>
-  </si>
-  <si>
-    <t>Лариса</t>
-  </si>
-  <si>
-    <t>Ирина</t>
-  </si>
-  <si>
-    <t>Антонина Ивановна</t>
-  </si>
-  <si>
     <t>Ольга</t>
   </si>
   <si>
-    <t>Алиф</t>
-  </si>
-  <si>
-    <t>Салех</t>
-  </si>
-  <si>
-    <t>медицинские споры звонить 17-00 89168286554</t>
-  </si>
-  <si>
-    <t>Мед. вопрос</t>
-  </si>
-  <si>
-    <t>89151801229</t>
-  </si>
-  <si>
-    <t>89267103590</t>
-  </si>
-  <si>
-    <t>89858438614</t>
-  </si>
-  <si>
-    <t>89099243242</t>
-  </si>
-  <si>
-    <t>89166488292</t>
-  </si>
-  <si>
-    <t>89500233991</t>
-  </si>
-  <si>
-    <t>89055841610</t>
-  </si>
-  <si>
-    <t>89096933356</t>
-  </si>
-  <si>
-    <t>89999008597</t>
-  </si>
-  <si>
-    <t>89160149229</t>
-  </si>
-  <si>
-    <t>89161557599</t>
-  </si>
-  <si>
-    <t>89036734269</t>
-  </si>
-  <si>
-    <t>89161657435</t>
-  </si>
-  <si>
-    <t>89853070623</t>
-  </si>
-  <si>
-    <t>89036156611</t>
-  </si>
-  <si>
-    <t>89645995868</t>
-  </si>
-  <si>
-    <t>Льготы, пособие, выплаты для пенсионера. 89267103590</t>
-  </si>
-  <si>
-    <t>89251725395</t>
-  </si>
-  <si>
-    <t>Вопрос по семейному праву.</t>
-  </si>
-  <si>
-    <t>Николаевич</t>
-  </si>
-  <si>
-    <t>Владимир Савельевич</t>
-  </si>
-  <si>
-    <t>89067488603</t>
-  </si>
-  <si>
-    <t>89266732318</t>
-  </si>
-  <si>
-    <t>Анастасия</t>
-  </si>
-  <si>
-    <t>Вопрос по пенсионному праву.</t>
-  </si>
-  <si>
-    <t>Вопрос по кредитной задолженности  89166488292</t>
-  </si>
-  <si>
-    <t>89151555125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван </t>
-  </si>
-  <si>
-    <t>вопрос по пенсионному праву.</t>
-  </si>
-  <si>
-    <t>Владимир Петрович</t>
-  </si>
-  <si>
-    <t>Шаховна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Андрей </t>
-  </si>
-  <si>
-    <t>89773737432</t>
-  </si>
-  <si>
-    <t>вопросы по льготам для ветерана труда 89096933356</t>
-  </si>
-  <si>
-    <t>Кредитный вопрос</t>
-  </si>
-  <si>
-    <t>Вопрос по алиментам.</t>
-  </si>
-  <si>
-    <t>Трудовой спор  89161557599</t>
-  </si>
-  <si>
-    <t>Вопросы по патентованию на изобретение 
-ПОЗВОНИТЕ В 17:00 ПО МОСКВЕ! 89036734269</t>
-  </si>
-  <si>
-    <t>Жилищные споры.</t>
-  </si>
-  <si>
-    <t>Претензия к интернет-компании. Написать жалобу</t>
-  </si>
-  <si>
-    <t>Вопрос по улучшению жилищных условий  89036156611</t>
-  </si>
-  <si>
-    <t>Кредиты микрофинанс рефинансирование. 89645995868</t>
-  </si>
-  <si>
-    <t>Вопрос по улучшению жилищных условий.Звонить в 14:30 по МСК</t>
-  </si>
-  <si>
-    <t>1. Жилищные споры, долги.2. Вопрос по ЗПП.</t>
-  </si>
-  <si>
-    <t>Вопрос по кредитному праву.(взял в кредит 480.000 т.р и хотел бы понизить процентную ставку.)</t>
-  </si>
-  <si>
-    <t>Кредитные вопросы</t>
-  </si>
-  <si>
-    <t>Квартирный вопрос.</t>
-  </si>
-  <si>
-    <t>Пенсионный вопрос.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Семейные споры - права на ребёнка </t>
-  </si>
-  <si>
-    <t>Вопрос по недвижимости.</t>
-  </si>
-  <si>
-    <t>РВП  гражданин  Республики Бангладеш, ЗВОНИТЬ ПОСЛЕ 18 час. 89683390406</t>
-  </si>
-  <si>
-    <t>89161065369</t>
-  </si>
-  <si>
-    <t>89168504685</t>
-  </si>
-  <si>
-    <t>89647226154</t>
-  </si>
-  <si>
-    <t>89683390406</t>
-  </si>
-  <si>
-    <t>89266277732</t>
-  </si>
-  <si>
-    <t>89031352028</t>
-  </si>
-  <si>
-    <t>89035817700</t>
-  </si>
-  <si>
-    <t>89037541660</t>
-  </si>
-  <si>
-    <t>89663480051</t>
-  </si>
-  <si>
-    <t>89165185523</t>
-  </si>
-  <si>
-    <t>89167105001</t>
-  </si>
-  <si>
-    <t>89067594519</t>
-  </si>
-  <si>
-    <t>89036670900</t>
-  </si>
-  <si>
-    <t>89151953247</t>
-  </si>
-  <si>
-    <t>89060469742</t>
-  </si>
-  <si>
-    <t>89166730702</t>
-  </si>
-  <si>
-    <t>89208343969</t>
-  </si>
-  <si>
-    <t>Юлия</t>
-  </si>
-  <si>
-    <t>Евгеньевич</t>
-  </si>
-  <si>
-    <t>Юрьевна</t>
-  </si>
-  <si>
-    <t>Вопрос по ЗПП.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вопрос по земельному праву.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89645255408.</t>
-  </si>
-  <si>
-    <t>89680067209</t>
-  </si>
-  <si>
-    <t>Помощь в оформлении банкротства физического лица 89035817700</t>
-  </si>
-  <si>
-    <t>Жилищный приватизация. 89037541660</t>
-  </si>
-  <si>
-    <t>вопрос по льготам для многодетной семьи 89663480051</t>
-  </si>
-  <si>
-    <t>Пенсионный вопрос(надбавка.)</t>
-  </si>
-  <si>
-    <t>Алименты - Жалоба на суд. приставов</t>
-  </si>
-  <si>
-    <t>Квартирный вопрос</t>
+    <t xml:space="preserve">Вопрос к авто-юристу снятие регистрационных действии с авто перезвонить в 16.00 </t>
+  </si>
+  <si>
+    <t>франциско</t>
+  </si>
+  <si>
+    <t>Пенсионные вопросы</t>
+  </si>
+  <si>
+    <t>Вопрос по ЗПП(помощь в возврате денежных средств за тур в Турции в размере 115.000 т.р.)</t>
+  </si>
+  <si>
+    <t>Вопрос по трудовому праву, вакцинация Поозвонить в 19.00</t>
+  </si>
+  <si>
+    <t>89163540730</t>
+  </si>
+  <si>
+    <t>89777727772</t>
+  </si>
+  <si>
+    <t>89037647303</t>
+  </si>
+  <si>
+    <t>89219926653</t>
+  </si>
+  <si>
+    <t>вопрос по кредиту</t>
+  </si>
+  <si>
+    <t>89915560490</t>
+  </si>
+  <si>
+    <t>89031690294</t>
+  </si>
+  <si>
+    <t>89264242501</t>
   </si>
   <si>
     <t>Владимир</t>
   </si>
   <si>
-    <t>Реновация / Мед. вопрос</t>
-  </si>
-  <si>
-    <t>помощь в составлении грамотной претензии по получению компенсации. Я упала в банке на мокром скользком полу. 89166730702</t>
-  </si>
-  <si>
-    <t>, миграционный вопрос, 89208343969</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Вопрос к автоюристу,   89645255408.</t>
-  </si>
-  <si>
-    <t>гр Таджикистана( вопрос по РВП)  89680067209</t>
-  </si>
-  <si>
-    <t>Претензии к мед. учреждению. СРОЧНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Пенсионный вопрос,  89150583285</t>
-  </si>
-  <si>
-    <t>, гр Узбекистана (вопрос по РВП)  89653707159</t>
-  </si>
-  <si>
-    <t>миграционный вопрос,  89035061122</t>
-  </si>
-  <si>
-    <t>, гр Таджикистана, миграционный вопрос,  89995347895</t>
-  </si>
-  <si>
-    <t>Квартирный вопрос(купля-продажа, по судебному разбирательству.)</t>
-  </si>
-  <si>
-    <t>Вопрос по трудовому праву (споры с руководителям.)</t>
-  </si>
-  <si>
-    <t>Вопрос по наследству.</t>
-  </si>
-  <si>
-    <t>ЗПП - купили телевизор через интернет. (матрица разбита). В возврате отказ</t>
-  </si>
-  <si>
-    <t>Жилищный вопрос.</t>
-  </si>
-  <si>
-    <t>Вопрос по алиментам не выплата нужна помощь .</t>
-  </si>
-  <si>
-    <t>Людмила Александровна</t>
-  </si>
-  <si>
-    <t>Фаина</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>Елена</t>
+    <t>Вопрос по недвижимости.
+Просит набрать в 13:00.</t>
+  </si>
+  <si>
+    <t>Незаконно списали деньги в размере 20к</t>
+  </si>
+  <si>
+    <t>Вопрос по штрафу 5к</t>
+  </si>
+  <si>
+    <t>Вопрос по жилищному праву споры с управляющии компанией.</t>
+  </si>
+  <si>
+    <t>Вопрос по возврату денежных средств (судебные приставы неправомерно списали денежные средства.)</t>
+  </si>
+  <si>
+    <t>Ивановна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос по земельному праву </t>
+  </si>
+  <si>
+    <t>Владислав</t>
+  </si>
+  <si>
+    <t>Айкануш</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>Инна</t>
+  </si>
+  <si>
+    <t>Альбиа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Николай </t>
   </si>
   <si>
     <t>Евгений</t>
   </si>
   <si>
-    <t>Татьяна</t>
-  </si>
-  <si>
-    <t>Инокентий</t>
-  </si>
-  <si>
-    <t>Рахим</t>
-  </si>
-  <si>
-    <t>Надежда</t>
-  </si>
-  <si>
-    <t>Вопрос по судебному разбирательству.</t>
-  </si>
-  <si>
-    <t>вопрос по наследству</t>
-  </si>
-  <si>
-    <t>Вопросы по наследству (У меня умерла мама, у нее была квартира в собственности. Теперь квартиру хотим переоформить в собственность на отца.)  89689604929</t>
-  </si>
-  <si>
-    <t>Вопросы по ЖКХ (1) 89061417570</t>
-  </si>
-  <si>
-    <t>Руслан</t>
-  </si>
-  <si>
-    <t>Вадим Николаевич</t>
-  </si>
-  <si>
-    <t>Фуршида</t>
-  </si>
-  <si>
-    <t>Галина</t>
-  </si>
-  <si>
-    <t>Андреевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89150583285</t>
-  </si>
-  <si>
-    <t>(?) по док-там.Восстановление инвалидности 2гр... 89779974575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Получение земельного участка ветераном труда. </t>
-  </si>
-  <si>
-    <t>Вопрос по улучшению жилищных условий.позвонить в 11:30 по МСК.</t>
-  </si>
-  <si>
-    <t>89653707159</t>
-  </si>
-  <si>
-    <t>89035061122</t>
-  </si>
-  <si>
-    <t>89995347895</t>
-  </si>
-  <si>
-    <t>89163780418</t>
-  </si>
-  <si>
-    <t>89168549620</t>
-  </si>
-  <si>
-    <t>Не смог выполнить решение суда первой инстанции. Так как поздно получил письмо. Что делать?</t>
-  </si>
-  <si>
-    <t>Вопрос к авто юристу (лишение прав нужна помощь.)звонить в 11:30 по МСК</t>
-  </si>
-  <si>
-    <t>Пенсионный 89036215007</t>
-  </si>
-  <si>
-    <t>Трудовое и пенсионное право.Правильное переоформление док-тов.Переезд...
-Социальное право 89805259421</t>
-  </si>
-  <si>
-    <t>,  вопрос по получению гражданства РФ, ,Мск. 89254048545</t>
-  </si>
-  <si>
-    <t>Тамара</t>
-  </si>
-  <si>
-    <t>Наталья Ивановна</t>
-  </si>
-  <si>
-    <t>Роман</t>
-  </si>
-  <si>
-    <t>89100091725</t>
-  </si>
-  <si>
-    <t>89036284629</t>
-  </si>
-  <si>
-    <t>89637559788</t>
-  </si>
-  <si>
-    <t>89099111384</t>
-  </si>
-  <si>
-    <t>89067006512</t>
-  </si>
-  <si>
-    <t>89689604929</t>
-  </si>
-  <si>
-    <t>89061417570</t>
-  </si>
-  <si>
-    <t>89779974575</t>
-  </si>
-  <si>
-    <t>Жилищный вопрос Работаю сиделкой с проживанием, сейчас подопечную положили на долго в больницу, как мне оформить проживание в ее квартире? 89167321700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> гр.Таджикистана( вопрос по РВП) ,  89254332969</t>
-  </si>
-  <si>
-    <t>Вопрос по трудовому праву не выплата ЗП.</t>
-  </si>
-  <si>
-    <t>Семейное право Наследство (мама проживала за границей, там она поменяла фамилию, как нам доказывать что мы ее наследники?) 89169174829</t>
-  </si>
-  <si>
-    <t>Ребенка не принимают в школу по месту проживания в Москве отправляют по месту прописки в область. 89616879467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Дачное хозяйство принуждает заключить договора на поставку газа...я пенсионерка..не имею возможность..вступить в сделку. И потом  говорят что при установлении нужно за услугу в течении проживания в год 3—5раз приглашать иначе после трех лет отрежут..газ..вопрос имею я право через суд восстановить свои права? . 89852338704</t>
-  </si>
-  <si>
-    <t>Жилищный вопрос / Пенсионный вопрос</t>
-  </si>
-  <si>
-    <t>земельный вопрос  89685106733</t>
-  </si>
-  <si>
-    <t>Вопрос по улучшению жилищных условий.и вопрос по алиментам.не выплата.</t>
-  </si>
-  <si>
-    <t>89958842755</t>
-  </si>
-  <si>
-    <t>89776786298</t>
-  </si>
-  <si>
-    <t>89165658894</t>
-  </si>
-  <si>
-    <t>Нажбудин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Саид  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Людмила.</t>
-  </si>
-  <si>
-    <t>Нигора</t>
-  </si>
-  <si>
-    <t>Бахтияр</t>
-  </si>
-  <si>
-    <t>Завышена оплата за вывоз мусора</t>
-  </si>
-  <si>
-    <t>Приехала из Киргизии устройство ребенка в д.сад. Поликлинику. приобретение мед.полюса. 89617559368</t>
-  </si>
-  <si>
-    <t>Земельный участок - налог</t>
-  </si>
-  <si>
-    <t>Возврат налога за купленную квартиру в строящемся доме,ключи отдали 2019 г. 89851487665</t>
-  </si>
-  <si>
-    <t>89195446006</t>
-  </si>
-  <si>
-    <t>Изатулло</t>
-  </si>
-  <si>
-    <t>Трудовые споры и еще есть (?). (звонить 14-15 час) 89808899716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Москва </t>
-  </si>
-  <si>
-    <t>89036215007</t>
-  </si>
-  <si>
-    <t>89805259421</t>
-  </si>
-  <si>
-    <t>Музафар</t>
-  </si>
-  <si>
-    <t>89254048545</t>
-  </si>
-  <si>
-    <t>89167321700</t>
-  </si>
-  <si>
-    <t>89254332969</t>
-  </si>
-  <si>
-    <t>89261067464</t>
-  </si>
-  <si>
-    <t>89169174829</t>
-  </si>
-  <si>
-    <t>89616879467</t>
-  </si>
-  <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александр </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юрий </t>
-  </si>
-  <si>
-    <t>Мухсин</t>
-  </si>
-  <si>
-    <t>Аня</t>
-  </si>
-  <si>
-    <t>. 89852338704</t>
-  </si>
-  <si>
-    <t>89776184361</t>
-  </si>
-  <si>
-    <t>89685106733</t>
-  </si>
-  <si>
-    <t>89033042192</t>
-  </si>
-  <si>
-    <t>89165718610</t>
-  </si>
-  <si>
-    <t>89617559368</t>
-  </si>
-  <si>
-    <t>89654117078</t>
-  </si>
-  <si>
-    <t>89851487665</t>
-  </si>
-  <si>
-    <t>89808899716</t>
-  </si>
-  <si>
-    <t>Джунайдулло</t>
-  </si>
-  <si>
-    <t>Раиса Яковлевна</t>
-  </si>
-  <si>
-    <t>Алексеевна</t>
-  </si>
-  <si>
-    <t>Ивановна</t>
-  </si>
-  <si>
-    <t>Сухроб</t>
-  </si>
-  <si>
-    <t>Лика</t>
-  </si>
-  <si>
-    <t>Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>Гуля</t>
-  </si>
-  <si>
-    <t>Оксана</t>
-  </si>
-  <si>
-    <t>Лидия Андреевна</t>
-  </si>
-  <si>
-    <t>Айнура</t>
-  </si>
-  <si>
-    <t>Иван Семёнович</t>
-  </si>
-  <si>
-    <t>Канабэк</t>
+    <t>Шамиль</t>
+  </si>
+  <si>
+    <t>автоправо</t>
+  </si>
+  <si>
+    <t>Васильевна</t>
+  </si>
+  <si>
+    <t>89257969563</t>
+  </si>
+  <si>
+    <t>89250083266</t>
+  </si>
+  <si>
+    <t>89856008748</t>
+  </si>
+  <si>
+    <t>89167667245</t>
+  </si>
+  <si>
+    <t>89856908648</t>
+  </si>
+  <si>
+    <t>89164146513</t>
+  </si>
+  <si>
+    <t>Добрый День. Мне нужна консультация вашего специалиста. Судебные приставы сняли 100% пенсию за алименты. правомерность их действий. ( Электросталь.) 89689909938</t>
+  </si>
+  <si>
+    <t>Земельное право</t>
+  </si>
+  <si>
+    <t>владимир</t>
+  </si>
+  <si>
+    <t>Любовь</t>
+  </si>
+  <si>
+    <t>Трудовое право</t>
+  </si>
+  <si>
+    <t>Здравствуйте. Мне нужна консультация вашего специалиста по отказу в детских выплатах с трех до семи лет  89100775842</t>
+  </si>
+  <si>
+    <t>Вопрос по жилищному праву.</t>
+  </si>
+  <si>
+    <t>Вопрос по долям</t>
+  </si>
+  <si>
+    <t>89096296559</t>
+  </si>
+  <si>
+    <t>89672664092</t>
+  </si>
+  <si>
+    <t>89037236834</t>
+  </si>
+  <si>
+    <t>89855172999</t>
+  </si>
+  <si>
+    <t>89854195461</t>
+  </si>
+  <si>
+    <t>89169348649</t>
+  </si>
+  <si>
+    <t>Помощь в переводе нежилого строения в жилое 
+ПОЗВОНИТЬ ПОСЛЕ 17.00
+КЛИЕНТ ЗАНЯТ</t>
+  </si>
+  <si>
+    <t>89691927426</t>
+  </si>
+  <si>
+    <t>89067330859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Галина </t>
+  </si>
+  <si>
+    <t>Альбина</t>
+  </si>
+  <si>
+    <t>шамиль</t>
+  </si>
+  <si>
+    <t>Здравствуйте. Мне нужна консультация вашего специалиста . Помощь в получении земельного участка  , сын инвалид  (более подробно с юристом ) 89031240417</t>
+  </si>
+  <si>
+    <t>Вопрос по трудовому праву</t>
+  </si>
+  <si>
+    <t>89168476233</t>
+  </si>
+  <si>
+    <t>89771043984</t>
+  </si>
+  <si>
+    <t>89998193312</t>
+  </si>
+  <si>
+    <t>89652729518</t>
+  </si>
+  <si>
+    <t>89154315159</t>
+  </si>
+  <si>
+    <t>89262457234</t>
+  </si>
+  <si>
+    <t>89774843116</t>
+  </si>
+  <si>
+    <t>89067970495</t>
+  </si>
+  <si>
+    <t>89154105503</t>
+  </si>
+  <si>
+    <t>89629753902</t>
+  </si>
+  <si>
+    <t>89162109541</t>
+  </si>
+  <si>
+    <t>89260390737</t>
+  </si>
+  <si>
+    <t>89859873459</t>
+  </si>
+  <si>
+    <t>89773390561</t>
+  </si>
+  <si>
+    <t>89683985330</t>
+  </si>
+  <si>
+    <t>89161694208</t>
+  </si>
+  <si>
+    <t>89269474808</t>
+  </si>
+  <si>
+    <t>89265295535</t>
+  </si>
+  <si>
+    <t>89165187496</t>
+  </si>
+  <si>
+    <t>89263303109</t>
+  </si>
+  <si>
+    <t>89266948104</t>
+  </si>
+  <si>
+    <t>89775862267</t>
+  </si>
+  <si>
+    <t>89269206171</t>
+  </si>
+  <si>
+    <t>89168052232</t>
+  </si>
+  <si>
+    <t>89266819695</t>
+  </si>
+  <si>
+    <t>89689909938</t>
+  </si>
+  <si>
+    <t>89506979006</t>
+  </si>
+  <si>
+    <t>89600090090</t>
+  </si>
+  <si>
+    <t>89100775842</t>
+  </si>
+  <si>
+    <t>89162966696</t>
+  </si>
+  <si>
+    <t>89175150401</t>
+  </si>
+  <si>
+    <t>89629907230</t>
+  </si>
+  <si>
+    <t>89859836330</t>
+  </si>
+  <si>
+    <t>89060828399</t>
+  </si>
+  <si>
+    <t>89031240417</t>
+  </si>
+  <si>
+    <t>89269559479</t>
   </si>
 </sst>
 </file>
@@ -1198,13 +1187,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1215,10 +1204,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -1229,13 +1218,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1249,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1266,10 +1255,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1283,10 +1272,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -1294,16 +1283,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1311,16 +1300,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1328,16 +1317,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1345,33 +1334,33 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1379,16 +1368,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -1396,50 +1385,50 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1447,33 +1436,33 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -1481,16 +1470,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -1498,16 +1487,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -1515,16 +1504,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -1532,16 +1521,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -1549,33 +1538,33 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -1583,16 +1572,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -1600,16 +1589,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -1617,33 +1606,33 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -1651,16 +1640,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -1668,50 +1657,50 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -1719,16 +1708,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -1736,33 +1725,33 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -1770,16 +1759,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -1787,16 +1776,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -1804,16 +1793,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -1821,16 +1810,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -1838,33 +1827,33 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -1872,16 +1861,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -1889,16 +1878,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -1906,16 +1895,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -1923,33 +1912,33 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -1957,16 +1946,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -1974,16 +1963,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -1991,16 +1980,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -2008,30 +1997,33 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -2039,16 +2031,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -2056,50 +2048,50 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -2107,16 +2099,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -2124,33 +2116,33 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -2158,33 +2150,33 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D60" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -2192,16 +2184,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
         <v>148</v>
       </c>
-      <c r="B61" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" t="s">
-        <v>163</v>
-      </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -2209,33 +2201,33 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" t="s">
         <v>233</v>
-      </c>
-      <c r="B63" t="s">
-        <v>233</v>
-      </c>
-      <c r="C63" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" t="s">
-        <v>153</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -2243,16 +2235,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -2260,33 +2252,33 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -2294,16 +2286,16 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -2311,16 +2303,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -2328,50 +2320,50 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D69" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -2379,16 +2371,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D72" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -2396,33 +2388,33 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -2430,16 +2422,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -2447,16 +2439,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -2464,33 +2456,33 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -2498,33 +2490,33 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D80" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -2532,67 +2524,67 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="E81" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="E83" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -2600,16 +2592,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -2617,16 +2609,16 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D86" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -2634,16 +2626,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="C87" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D87" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -2651,16 +2643,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -2668,16 +2660,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -2685,33 +2677,33 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C91" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D91" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -2719,16 +2711,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D92" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -2736,16 +2728,16 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="C93" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D93" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -2753,16 +2745,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -2770,33 +2762,33 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D96" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -2804,16 +2796,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>112</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D97" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -2821,50 +2813,50 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="B98" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="D98" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D99" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -2872,16 +2864,16 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
